--- a/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en educación.xlsx
+++ b/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en educación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{CAF00ADA-E8C9-458F-AC30-FA83A73F5882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F36DCB-5757-4F33-A63B-C028E6AB9361}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{CAF00ADA-E8C9-458F-AC30-FA83A73F5882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0DA43A-4872-4E00-BE20-5E33C07205D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Nombre</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Índice de innovación global 2024.</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Considerar esta fuente tmb: Gasto público en educación como porcentaje del PBI: https://escale.minedu.gob.pe/ueetendencias2016?p_auth=PkOcGS6w&amp;p_p_id=TendenciasActualPortlet2016_WAR_tendencias2016portlet_INSTANCE_t6xG&amp;p_p_lifecycle=1&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_pos=1&amp;p_p_col_count=3&amp;_TendenciasActualPortlet2016_WAR_tendencias2016portlet_INSTANCE_t6xG_idCuadro=105</t>
+  </si>
+  <si>
+    <t>Considerar esta fuente tmb: Porcentaje de escuelas que cuentan con acceso a Internet, secundaria (% del total): https://escale.minedu.gob.pe/ueetendencias2016?p_auth=PkOcGS6w&amp;p_p_id=TendenciasActualPortlet2016_WAR_tendencias2016portlet_INSTANCE_t6xG&amp;p_p_lifecycle=1&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_pos=1&amp;p_p_col_count=3&amp;_TendenciasActualPortlet2016_WAR_tendencias2016portlet_INSTANCE_t6xG_idCuadro=53</t>
   </si>
 </sst>
 </file>
@@ -898,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D02EE3-0100-4A5F-8302-8309F532D55A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,9 +920,10 @@
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -935,8 +945,11 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -956,8 +969,9 @@
       <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
@@ -977,8 +991,9 @@
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1000,8 +1015,11 @@
       <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>77</v>
       </c>
@@ -1014,22 +1032,25 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
